--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lgi1-Adam22.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lgi1-Adam22.xlsx
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Lgi1</t>
+  </si>
+  <si>
+    <t>Adam22</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Lgi1</t>
-  </si>
-  <si>
-    <t>Adam22</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -540,13 +540,13 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.000409</v>
+        <v>0.035285</v>
       </c>
       <c r="H2">
-        <v>0.001227</v>
+        <v>0.07056999999999999</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.124414</v>
+        <v>5.447678</v>
       </c>
       <c r="N2">
-        <v>2.248828</v>
+        <v>10.895356</v>
       </c>
       <c r="O2">
-        <v>0.1096545122942886</v>
+        <v>0.4286498436662743</v>
       </c>
       <c r="P2">
-        <v>0.08772804550878611</v>
+        <v>0.4047900009176674</v>
       </c>
       <c r="Q2">
-        <v>0.000459885326</v>
+        <v>0.19222131823</v>
       </c>
       <c r="R2">
-        <v>0.002759311956</v>
+        <v>0.7688852729199999</v>
       </c>
       <c r="S2">
-        <v>0.1096545122942886</v>
+        <v>0.4286498436662743</v>
       </c>
       <c r="T2">
-        <v>0.08772804550878611</v>
+        <v>0.4047900009176674</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,13 +602,13 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.000409</v>
+        <v>0.035285</v>
       </c>
       <c r="H3">
-        <v>0.001227</v>
+        <v>0.07056999999999999</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7327576666666666</v>
+        <v>0.7327576666666668</v>
       </c>
       <c r="N3">
         <v>2.198273</v>
       </c>
       <c r="O3">
-        <v>0.07145960879910267</v>
+        <v>0.05765694287766837</v>
       </c>
       <c r="P3">
-        <v>0.0857558665156854</v>
+        <v>0.08167139556406268</v>
       </c>
       <c r="Q3">
-        <v>0.0002996978856666667</v>
+        <v>0.02585535426833334</v>
       </c>
       <c r="R3">
-        <v>0.002697280971</v>
+        <v>0.15513212561</v>
       </c>
       <c r="S3">
-        <v>0.07145960879910267</v>
+        <v>0.05765694287766837</v>
       </c>
       <c r="T3">
-        <v>0.0857558665156854</v>
+        <v>0.08167139556406268</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,13 +664,13 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.000409</v>
+        <v>0.035285</v>
       </c>
       <c r="H4">
-        <v>0.001227</v>
+        <v>0.07056999999999999</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9572023333333334</v>
+        <v>0.302684</v>
       </c>
       <c r="N4">
-        <v>2.871607</v>
+        <v>0.9080520000000001</v>
       </c>
       <c r="O4">
-        <v>0.09334778384885081</v>
+        <v>0.02381665165971311</v>
       </c>
       <c r="P4">
-        <v>0.1120230046848175</v>
+        <v>0.03373642586009028</v>
       </c>
       <c r="Q4">
-        <v>0.0003914957543333334</v>
+        <v>0.01068020494</v>
       </c>
       <c r="R4">
-        <v>0.003523461789</v>
+        <v>0.06408122964</v>
       </c>
       <c r="S4">
-        <v>0.09334778384885081</v>
+        <v>0.02381665165971311</v>
       </c>
       <c r="T4">
-        <v>0.1120230046848175</v>
+        <v>0.03373642586009028</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,19 +720,19 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.000409</v>
+        <v>0.035285</v>
       </c>
       <c r="H5">
-        <v>0.001227</v>
+        <v>0.07056999999999999</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.003958</v>
+        <v>5.763022</v>
       </c>
       <c r="N5">
-        <v>8.007916</v>
+        <v>11.526044</v>
       </c>
       <c r="O5">
-        <v>0.3904718917914711</v>
+        <v>0.4534626457997884</v>
       </c>
       <c r="P5">
-        <v>0.3123933085494028</v>
+        <v>0.4282216534583244</v>
       </c>
       <c r="Q5">
-        <v>0.001637618822</v>
+        <v>0.20334823127</v>
       </c>
       <c r="R5">
-        <v>0.009825712932</v>
+        <v>0.8133929250799999</v>
       </c>
       <c r="S5">
-        <v>0.3904718917914711</v>
+        <v>0.4534626457997884</v>
       </c>
       <c r="T5">
-        <v>0.3123933085494028</v>
+        <v>0.4282216534583244</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,19 +782,19 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.000409</v>
+        <v>0.035285</v>
       </c>
       <c r="H6">
-        <v>0.001227</v>
+        <v>0.07056999999999999</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.387532666666667</v>
+        <v>0.2632226666666667</v>
       </c>
       <c r="N6">
-        <v>7.162597999999999</v>
+        <v>0.789668</v>
       </c>
       <c r="O6">
-        <v>0.2328357083334213</v>
+        <v>0.02071164171525676</v>
       </c>
       <c r="P6">
-        <v>0.2794169777791544</v>
+        <v>0.02933816118029118</v>
       </c>
       <c r="Q6">
-        <v>0.0009765008606666667</v>
+        <v>0.009287811793333333</v>
       </c>
       <c r="R6">
-        <v>0.008788507745999999</v>
+        <v>0.05572687076</v>
       </c>
       <c r="S6">
-        <v>0.2328357083334213</v>
+        <v>0.02071164171525676</v>
       </c>
       <c r="T6">
-        <v>0.2794169777791544</v>
+        <v>0.02933816118029118</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.000409</v>
+        <v>0.035285</v>
       </c>
       <c r="H7">
-        <v>0.001227</v>
+        <v>0.07056999999999999</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.048287</v>
+        <v>0.199559</v>
       </c>
       <c r="N7">
-        <v>3.144861</v>
+        <v>0.598677</v>
       </c>
       <c r="O7">
-        <v>0.1022304949328654</v>
+        <v>0.01570227428129894</v>
       </c>
       <c r="P7">
-        <v>0.1226827969621539</v>
+        <v>0.02224236301956415</v>
       </c>
       <c r="Q7">
-        <v>0.000428749383</v>
+        <v>0.007041439315</v>
       </c>
       <c r="R7">
-        <v>0.003858744447</v>
+        <v>0.04224863589</v>
       </c>
       <c r="S7">
-        <v>0.1022304949328654</v>
+        <v>0.01570227428129894</v>
       </c>
       <c r="T7">
-        <v>0.1226827969621539</v>
+        <v>0.02224236301956415</v>
       </c>
     </row>
   </sheetData>
